--- a/全栈进阶/前端进阶.xlsx
+++ b/全栈进阶/前端进阶.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="全栈路线" sheetId="7" r:id="rId1"/>
     <sheet name="性能优化" sheetId="8" r:id="rId2"/>
-    <sheet name="webpack" sheetId="9" r:id="rId3"/>
-    <sheet name="CSS3" sheetId="1" r:id="rId4"/>
-    <sheet name="JavaScript" sheetId="2" r:id="rId5"/>
-    <sheet name="Vue" sheetId="3" r:id="rId6"/>
-    <sheet name="PWA" sheetId="4" r:id="rId7"/>
-    <sheet name="React" sheetId="5" r:id="rId8"/>
-    <sheet name="微信小程序" sheetId="6" r:id="rId9"/>
+    <sheet name="CSS3" sheetId="1" r:id="rId3"/>
+    <sheet name="JavaScript" sheetId="2" r:id="rId4"/>
+    <sheet name="Vue" sheetId="3" r:id="rId5"/>
+    <sheet name="React" sheetId="5" r:id="rId6"/>
+    <sheet name="typeScript" sheetId="10" r:id="rId7"/>
+    <sheet name="PWA" sheetId="4" r:id="rId8"/>
+    <sheet name="单元测试" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
   <si>
     <t>Javascript</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -285,69 +285,6 @@
     <t>TCP网络调优</t>
   </si>
   <si>
-    <t>webpack4实战</t>
-  </si>
-  <si>
-    <t>entry</t>
-  </si>
-  <si>
-    <t>output</t>
-  </si>
-  <si>
-    <t>loaders</t>
-  </si>
-  <si>
-    <t>plugins</t>
-  </si>
-  <si>
-    <t>文件指纹</t>
-  </si>
-  <si>
-    <t>webpack4优化</t>
-  </si>
-  <si>
-    <t>dll</t>
-  </si>
-  <si>
-    <t>resolve</t>
-  </si>
-  <si>
-    <t>模块热替换</t>
-  </si>
-  <si>
-    <t>压缩</t>
-  </si>
-  <si>
-    <t>代码分割</t>
-  </si>
-  <si>
-    <t>可视化工具</t>
-  </si>
-  <si>
-    <t>webpack4 源码分析</t>
-  </si>
-  <si>
-    <t>懒加载原理</t>
-  </si>
-  <si>
-    <t>热更新原理</t>
-  </si>
-  <si>
-    <t>编写自定义 Loader</t>
-  </si>
-  <si>
-    <t>style-loader</t>
-  </si>
-  <si>
-    <t>css-loader</t>
-  </si>
-  <si>
-    <t>less-loader</t>
-  </si>
-  <si>
-    <t>编写自定义 Plugins</t>
-  </si>
-  <si>
     <t>Vue基础</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -673,6 +610,350 @@
   </si>
   <si>
     <t>项目部署和上线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>React基础</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>React进阶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>React路由</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Redux</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>React服务端渲染 SSR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Antd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AntdPro</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeScript</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发环境</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本语法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>面向对象编程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>泛型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端工程化 TS引用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>声明文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeScript+ React集成开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块化和组件化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>React的属性，校验，参数传递</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>React的状态和双向数据绑定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>React中的单向数据流</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受控组件和非受控组件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ract表单双向数据绑定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新旧context上下文环境</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOM获取之ref</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新旧生命周期函数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>create-react-app原理分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsx原理和虚拟DOM原理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>setState异步原理实现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>React中的事务实现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用 immutable.js</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pureComponent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>React动画</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ErrorBoundary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suspense和 Fragment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>React Hooks + Redux实战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>React性能分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>React的高阶组件和 render Props</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>react核心，新一代的Fiber架构</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从零实现一款包含完整的 DOM Diff功能的React</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>路由配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>路由懒加载</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>路由重定向</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>路由-权限管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受保护的路由</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手写一个完整的React-router4路由库</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>redux核心概念，action、reducer，store</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手写实现 redux，react-redux，connected-react-router完整类库</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手写redux，react-redux，redux-logger,redux-promise,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>redux-thunk,redux-saga,redux-acions,reselect，redux-persist等经典redux中间类库</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端渲染 VS服务端渲染</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>React中的服务端渲染</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同构的原理和意义</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSR中使用路由</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSR中使用redux</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEO优化，预渲染</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Koa2+Next.js服务端渲染实战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">observable </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>computed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>autorun</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>when</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reaction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobx实战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手写一个mobx类库</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>布局组件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单组件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复杂表格组件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手写 Antd 表格组件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nunjucks模板引擎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yaml配置语法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mock.js模拟数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>roading</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>umi配置静态和动态路由</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限和动画</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nmi实现原理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dva创建应用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集成AntdPro</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义路由和UI组件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接仓库</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用offects和reducers</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手写实现 DVA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业级后台系统 AntdPro</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用例和需求分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元测试框架mocha</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爬虫利器 puppeteer实战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jest+ Enzyme实现react单元测试</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1197,131 +1478,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:B27"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1331,7 +1491,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H20"/>
   <sheetViews>
@@ -1519,11 +1679,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -1540,306 +1700,306 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F2" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="G3" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H3" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="F4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="G4" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="H4" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="F5" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="G5" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="H5" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="E6" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="F6" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="G6" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="H6" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="D7" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="E7" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="F7" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="G7" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="H7" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="F8" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="G8" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="H8" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="D9" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="E9" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="E10" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="G10" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="E11" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C16" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="C17" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="C18" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="C19" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="C20" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="C21" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="C22" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1849,16 +2009,364 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:E32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="33.5" customWidth="1"/>
+    <col min="3" max="3" width="26.5" customWidth="1"/>
+    <col min="4" max="4" width="38.25" customWidth="1"/>
+    <col min="5" max="5" width="46.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" t="s">
+        <v>154</v>
+      </c>
+      <c r="E18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C19" t="s">
+        <v>205</v>
+      </c>
+      <c r="D19" t="s">
+        <v>212</v>
+      </c>
+      <c r="E19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" t="s">
+        <v>206</v>
+      </c>
+      <c r="D20" t="s">
+        <v>213</v>
+      </c>
+      <c r="E20" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>200</v>
+      </c>
+      <c r="C21" t="s">
+        <v>207</v>
+      </c>
+      <c r="D21" t="s">
+        <v>214</v>
+      </c>
+      <c r="E21" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" t="s">
+        <v>208</v>
+      </c>
+      <c r="D22" t="s">
+        <v>215</v>
+      </c>
+      <c r="E22" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>202</v>
+      </c>
+      <c r="C23" t="s">
+        <v>209</v>
+      </c>
+      <c r="E23" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>203</v>
+      </c>
+      <c r="C24" t="s">
+        <v>210</v>
+      </c>
+      <c r="E24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>204</v>
+      </c>
+      <c r="C25" t="s">
+        <v>211</v>
+      </c>
+      <c r="E25" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>229</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1866,7 +2374,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -1877,12 +2387,35 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:B6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
